--- a/data/trans_camb/P2C_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P2C_R-Provincia-trans_camb.xlsx
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 6,28</t>
+          <t>-8,64; 6,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-26,53; -14,75</t>
+          <t>-26,82; -14,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-13,6; 3,62</t>
+          <t>-13,49; 3,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-38,89; -25,01</t>
+          <t>-38,76; -25,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-8,64; 2,72</t>
+          <t>-8,77; 2,08</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-30,75; -21,44</t>
+          <t>-30,37; -21,83</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-26,54; 27,81</t>
+          <t>-27,49; 26,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-86,01; -62,88</t>
+          <t>-85,96; -63,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-30,72; 10,02</t>
+          <t>-29,63; 10,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-84,97; -69,85</t>
+          <t>-84,68; -70,75</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-23,62; 9,53</t>
+          <t>-23,86; 7,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-83,17; -70,53</t>
+          <t>-83,02; -70,42</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,8; 16,47</t>
+          <t>6,13; 16,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 9,51</t>
+          <t>-0,31; 9,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,27; 0,89</t>
+          <t>-7,77; 1,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,53; 18,88</t>
+          <t>7,61; 19,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 7,38</t>
+          <t>-3,25; 7,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-13,0; -2,2</t>
+          <t>-12,6; -2,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,99; 16,05</t>
+          <t>8,12; 15,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 7,27</t>
+          <t>-0,5; 7,3</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-9,28; -2,48</t>
+          <t>-8,71; -2,1</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>34,31; 139,84</t>
+          <t>34,64; 132,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 80,24</t>
+          <t>-1,96; 77,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-48,93; 6,69</t>
+          <t>-45,74; 11,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>23,91; 76,09</t>
+          <t>26,04; 78,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-11,37; 28,55</t>
+          <t>-10,83; 31,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-42,5; -8,48</t>
+          <t>-41,46; -10,7</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>34,58; 81,0</t>
+          <t>35,28; 82,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 37,19</t>
+          <t>-2,23; 36,39</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-39,11; -11,9</t>
+          <t>-38,21; -10,86</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,1; 14,09</t>
+          <t>-0,18; 14,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,07; 3,6</t>
+          <t>-8,96; 4,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-16,72; -4,9</t>
+          <t>-16,22; -4,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,85; 16,79</t>
+          <t>2,03; 17,57</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-12,5; 1,17</t>
+          <t>-12,3; 1,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-23,3; -11,38</t>
+          <t>-24,08; -11,95</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,14; 13,54</t>
+          <t>2,82; 13,3</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,7; 0,83</t>
+          <t>-8,16; 0,77</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-18,36; -10,16</t>
+          <t>-18,42; -10,03</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,36; 72,86</t>
+          <t>-0,69; 73,27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-35,67; 18,21</t>
+          <t>-34,03; 20,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-63,91; -23,82</t>
+          <t>-62,21; -21,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,06; 61,51</t>
+          <t>4,89; 62,62</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-35,76; 4,44</t>
+          <t>-34,84; 7,44</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-66,08; -40,8</t>
+          <t>-67,03; -42,96</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>10,94; 54,65</t>
+          <t>9,81; 54,73</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-29,59; 3,19</t>
+          <t>-28,03; 3,18</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-62,13; -41,56</t>
+          <t>-61,6; -41,11</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,13; 12,06</t>
+          <t>0,17; 11,84</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-14,32; -2,25</t>
+          <t>-13,79; -2,21</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-15,58; -1,91</t>
+          <t>-16,24; -1,8</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,91; 21,86</t>
+          <t>9,48; 21,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,01; 5,84</t>
+          <t>-7,37; 6,72</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-22,03; -10,79</t>
+          <t>-22,85; -10,98</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,34; 15,24</t>
+          <t>6,56; 15,03</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 0,29</t>
+          <t>-8,99; 0,48</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-16,76; -8,02</t>
+          <t>-16,71; -8,13</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,17; 57,0</t>
+          <t>0,07; 56,59</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-51,64; -10,25</t>
+          <t>-50,59; -10,34</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-55,41; -7,67</t>
+          <t>-57,85; -7,93</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>28,14; 78,37</t>
+          <t>26,59; 76,11</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-22,58; 19,85</t>
+          <t>-21,46; 22,69</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-62,64; -37,03</t>
+          <t>-62,94; -37,39</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>20,45; 60,29</t>
+          <t>21,19; 59,28</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-28,4; 1,12</t>
+          <t>-29,42; 1,75</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-55,84; -31,34</t>
+          <t>-55,69; -30,76</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,09; 18,96</t>
+          <t>2,8; 18,95</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>12,12; 29,0</t>
+          <t>13,06; 29,87</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-11,57; 1,16</t>
+          <t>-11,4; 0,83</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>6,88; 24,95</t>
+          <t>7,33; 25,32</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>5,41; 22,64</t>
+          <t>4,31; 21,92</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-23,16; -8,84</t>
+          <t>-23,06; -9,37</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>7,5; 19,78</t>
+          <t>7,18; 19,73</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>11,45; 23,02</t>
+          <t>11,38; 23,68</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-15,19; -5,86</t>
+          <t>-15,3; -5,91</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>7,79; 156,56</t>
+          <t>13,38; 152,66</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>60,56; 238,82</t>
+          <t>66,35; 262,54</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-58,84; 15,25</t>
+          <t>-58,3; 12,78</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>22,64; 116,97</t>
+          <t>22,11; 116,91</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>17,24; 104,4</t>
+          <t>13,73; 105,12</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-74,45; -41,88</t>
+          <t>-74,44; -42,24</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>31,1; 109,07</t>
+          <t>28,99; 108,68</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>48,05; 129,37</t>
+          <t>44,97; 131,14</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-64,55; -33,49</t>
+          <t>-62,94; -31,43</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 14,27</t>
+          <t>-0,54; 14,27</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 8,06</t>
+          <t>-6,62; 8,62</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-11,89; 0,79</t>
+          <t>-12,05; 0,92</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>7,07; 22,68</t>
+          <t>6,48; 22,87</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 7,8</t>
+          <t>-5,86; 8,62</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 5,1</t>
+          <t>-8,33; 6,04</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>5,23; 16,42</t>
+          <t>4,82; 16,18</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 5,9</t>
+          <t>-4,25; 6,4</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 0,88</t>
+          <t>-8,21; 1,24</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 74,22</t>
+          <t>-2,86; 73,21</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-25,62; 39,74</t>
+          <t>-24,26; 42,97</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-44,41; 4,08</t>
+          <t>-43,95; 6,16</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>24,37; 106,72</t>
+          <t>23,61; 110,33</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-24,13; 36,4</t>
+          <t>-20,92; 40,87</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-28,52; 25,88</t>
+          <t>-27,84; 29,01</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>18,34; 76,25</t>
+          <t>18,41; 73,64</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-16,06; 27,42</t>
+          <t>-16,84; 28,88</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-31,47; 4,17</t>
+          <t>-30,57; 5,58</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>10,04; 19,82</t>
+          <t>9,94; 19,8</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 6,75</t>
+          <t>-2,82; 6,76</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-16,94; -9,58</t>
+          <t>-16,91; -9,39</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,45; 11,05</t>
+          <t>0,9; 12,02</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-9,44; 1,16</t>
+          <t>-9,49; 1,09</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-29,08; 17,04</t>
+          <t>-29,06; 17,19</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>6,54; 14,06</t>
+          <t>6,46; 13,82</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 2,31</t>
+          <t>-4,75; 2,34</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-21,45; 7,86</t>
+          <t>-21,53; 6,89</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>47,91; 125,37</t>
+          <t>48,07; 124,67</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-12,53; 40,85</t>
+          <t>-14,06; 42,27</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-80,84; -56,84</t>
+          <t>-81,2; -56,46</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>1,2; 34,35</t>
+          <t>2,33; 36,56</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-24,89; 3,63</t>
+          <t>-25,04; 3,34</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-80,18; 53,13</t>
+          <t>-80,84; 49,41</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>22,31; 55,28</t>
+          <t>22,14; 55,51</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-16,88; 9,26</t>
+          <t>-16,49; 9,29</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-77,8; 31,73</t>
+          <t>-77,71; 32,21</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>3,05; 12,03</t>
+          <t>3,18; 11,9</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>5,47; 14,53</t>
+          <t>5,87; 14,78</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 6,31</t>
+          <t>-3,72; 6,18</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>12,18; 21,89</t>
+          <t>13,09; 22,39</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>9,87; 19,33</t>
+          <t>10,05; 19,52</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>0,7; 9,57</t>
+          <t>-0,22; 8,94</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>9,35; 15,77</t>
+          <t>9,48; 15,94</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>9,45; 15,9</t>
+          <t>9,27; 15,82</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 6,59</t>
+          <t>-0,41; 6,7</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>14,43; 71,64</t>
+          <t>14,46; 66,47</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>26,41; 85,19</t>
+          <t>26,88; 84,48</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-13,92; 35,51</t>
+          <t>-17,47; 33,73</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>42,46; 92,12</t>
+          <t>44,91; 93,87</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>34,09; 79,56</t>
+          <t>34,61; 81,06</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>2,33; 39,04</t>
+          <t>-0,74; 37,75</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>38,27; 74,05</t>
+          <t>38,1; 73,21</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>38,09; 73,42</t>
+          <t>37,58; 72,95</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>0,12; 30,67</t>
+          <t>-1,64; 30,95</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>6,94; 11,19</t>
+          <t>6,8; 11,1</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>1,5; 5,64</t>
+          <t>1,83; 5,86</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-8,81; -4,95</t>
+          <t>-8,61; -4,61</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>10,32; 15,07</t>
+          <t>10,17; 14,82</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>0,5; 5,02</t>
+          <t>0,42; 5,13</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-13,15; -2,13</t>
+          <t>-13,28; -0,49</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>9,32; 12,4</t>
+          <t>9,41; 12,54</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>1,61; 4,63</t>
+          <t>1,81; 4,9</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-10,17; -3,97</t>
+          <t>-10,15; -3,5</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>32,62; 58,61</t>
+          <t>32,74; 57,96</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>7,15; 29,29</t>
+          <t>8,48; 30,83</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-41,16; -25,88</t>
+          <t>-41,29; -24,32</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>32,7; 51,53</t>
+          <t>32,19; 50,37</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>1,65; 17,26</t>
+          <t>1,35; 17,55</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-42,42; -7,24</t>
+          <t>-42,93; -1,18</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>35,57; 50,48</t>
+          <t>36,0; 51,17</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>6,12; 18,66</t>
+          <t>6,75; 19,83</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-39,24; -14,72</t>
+          <t>-39,33; -12,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2C_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P2C_R-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,64; 6,29</t>
+          <t>-8,75; 6,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-26,82; -14,46</t>
+          <t>-26,43; -14,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-13,49; 3,71</t>
+          <t>-13,76; 3,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-38,76; -25,36</t>
+          <t>-38,26; -25,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-8,77; 2,08</t>
+          <t>-8,93; 2,91</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-30,37; -21,83</t>
+          <t>-30,74; -21,68</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-27,49; 26,87</t>
+          <t>-28,31; 29,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-85,96; -63,11</t>
+          <t>-86,02; -62,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-29,63; 10,69</t>
+          <t>-30,33; 9,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-84,68; -70,75</t>
+          <t>-84,5; -70,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-23,86; 7,02</t>
+          <t>-24,73; 9,42</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-83,02; -70,42</t>
+          <t>-83,08; -70,84</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,13; 16,1</t>
+          <t>6,32; 16,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 9,58</t>
+          <t>-0,42; 9,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,77; 1,41</t>
+          <t>-7,88; 0,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,61; 19,21</t>
+          <t>7,12; 19,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 7,65</t>
+          <t>-3,94; 7,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,6; -2,77</t>
+          <t>-12,86; -2,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,12; 15,95</t>
+          <t>8,1; 16,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 7,3</t>
+          <t>-0,25; 7,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-8,71; -2,1</t>
+          <t>-9,04; -2,18</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>34,64; 132,22</t>
+          <t>36,84; 136,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 77,91</t>
+          <t>-2,96; 75,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-45,74; 11,07</t>
+          <t>-47,58; 6,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>26,04; 78,55</t>
+          <t>23,37; 79,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-10,83; 31,11</t>
+          <t>-12,24; 31,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-41,46; -10,7</t>
+          <t>-41,68; -10,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>35,28; 82,38</t>
+          <t>35,81; 86,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 36,39</t>
+          <t>-1,17; 38,85</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-38,21; -10,86</t>
+          <t>-39,14; -11,18</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 14,02</t>
+          <t>0,53; 14,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,96; 4,14</t>
+          <t>-9,13; 3,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-16,22; -4,28</t>
+          <t>-16,55; -4,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,03; 17,57</t>
+          <t>2,39; 16,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-12,3; 1,84</t>
+          <t>-12,53; 1,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-24,08; -11,95</t>
+          <t>-23,54; -12,48</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,82; 13,3</t>
+          <t>3,06; 13,81</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,16; 0,77</t>
+          <t>-8,8; 0,49</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-18,42; -10,03</t>
+          <t>-18,2; -9,6</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 73,27</t>
+          <t>1,93; 75,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-34,03; 20,11</t>
+          <t>-34,76; 18,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-62,21; -21,82</t>
+          <t>-63,04; -23,17</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,89; 62,62</t>
+          <t>7,24; 60,1</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-34,84; 7,44</t>
+          <t>-36,31; 4,12</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-67,03; -42,96</t>
+          <t>-66,63; -44,28</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,81; 54,73</t>
+          <t>10,28; 57,25</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-28,03; 3,18</t>
+          <t>-30,02; 2,02</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-61,6; -41,11</t>
+          <t>-61,28; -39,26</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,17; 11,84</t>
+          <t>-0,03; 11,25</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-13,79; -2,21</t>
+          <t>-14,43; -2,36</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-16,24; -1,8</t>
+          <t>-14,81; -0,89</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,48; 21,94</t>
+          <t>9,61; 21,58</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,37; 6,72</t>
+          <t>-7,4; 6,09</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-22,85; -10,98</t>
+          <t>-22,55; -10,94</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,56; 15,03</t>
+          <t>6,41; 14,83</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-8,99; 0,48</t>
+          <t>-8,62; 0,62</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-16,71; -8,13</t>
+          <t>-16,76; -8,05</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,07; 56,59</t>
+          <t>-0,62; 53,15</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-50,59; -10,34</t>
+          <t>-50,48; -10,31</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-57,85; -7,93</t>
+          <t>-55,52; -3,54</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>26,59; 76,11</t>
+          <t>26,5; 76,17</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-21,46; 22,69</t>
+          <t>-21,19; 21,83</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-62,94; -37,39</t>
+          <t>-62,7; -37,07</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>21,19; 59,28</t>
+          <t>20,83; 56,63</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-29,42; 1,75</t>
+          <t>-28,51; 2,26</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-55,69; -30,76</t>
+          <t>-56,28; -30,81</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,8; 18,95</t>
+          <t>2,49; 18,64</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>13,06; 29,87</t>
+          <t>12,57; 29,01</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-11,4; 0,83</t>
+          <t>-11,35; 1,34</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>7,33; 25,32</t>
+          <t>7,69; 26,04</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>4,31; 21,92</t>
+          <t>4,46; 22,27</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-23,06; -9,37</t>
+          <t>-22,45; -8,38</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>7,18; 19,73</t>
+          <t>7,97; 20,23</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>11,38; 23,68</t>
+          <t>11,08; 23,47</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-15,3; -5,91</t>
+          <t>-15,23; -5,51</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>13,38; 152,66</t>
+          <t>13,49; 156,5</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>66,35; 262,54</t>
+          <t>59,62; 235,47</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-58,3; 12,78</t>
+          <t>-57,45; 11,49</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>22,11; 116,91</t>
+          <t>24,49; 122,11</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>13,73; 105,12</t>
+          <t>15,66; 109,02</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-74,44; -42,24</t>
+          <t>-73,7; -40,09</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>28,99; 108,68</t>
+          <t>31,87; 114,23</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>44,97; 131,14</t>
+          <t>46,04; 132,04</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-62,94; -31,43</t>
+          <t>-63,16; -30,11</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 14,27</t>
+          <t>-0,23; 14,96</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 8,62</t>
+          <t>-6,13; 8,01</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-12,05; 0,92</t>
+          <t>-11,91; 1,3</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>6,48; 22,87</t>
+          <t>6,81; 22,17</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 8,62</t>
+          <t>-7,2; 8,58</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-8,33; 6,04</t>
+          <t>-8,63; 5,22</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>4,82; 16,18</t>
+          <t>5,37; 16,27</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 6,4</t>
+          <t>-4,77; 5,88</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 1,24</t>
+          <t>-8,22; 1,06</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 73,21</t>
+          <t>-0,81; 78,23</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-24,26; 42,97</t>
+          <t>-22,18; 42,64</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-43,95; 6,16</t>
+          <t>-43,66; 6,77</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>23,61; 110,33</t>
+          <t>22,12; 100,59</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-20,92; 40,87</t>
+          <t>-24,98; 39,72</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-27,84; 29,01</t>
+          <t>-28,93; 24,9</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>18,41; 73,64</t>
+          <t>19,59; 73,96</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-16,84; 28,88</t>
+          <t>-17,49; 26,21</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-30,57; 5,58</t>
+          <t>-29,69; 5,09</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>9,94; 19,8</t>
+          <t>10,01; 19,55</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 6,76</t>
+          <t>-2,5; 6,84</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-16,91; -9,39</t>
+          <t>-16,97; -9,19</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,9; 12,02</t>
+          <t>0,56; 11,66</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 1,09</t>
+          <t>-9,56; 0,62</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-29,06; 17,19</t>
+          <t>-29,22; 15,3</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>6,46; 13,82</t>
+          <t>6,27; 14,01</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 2,34</t>
+          <t>-4,66; 2,23</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-21,53; 6,89</t>
+          <t>-21,33; 7,38</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>48,07; 124,67</t>
+          <t>47,38; 124,38</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-14,06; 42,27</t>
+          <t>-11,99; 41,7</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-81,2; -56,46</t>
+          <t>-81,01; -55,61</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>2,33; 36,56</t>
+          <t>1,7; 35,77</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-25,04; 3,34</t>
+          <t>-25,16; 1,68</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-80,84; 49,41</t>
+          <t>-80,7; 42,9</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>22,14; 55,51</t>
+          <t>21,57; 55,2</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-16,49; 9,29</t>
+          <t>-16,0; 8,97</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-77,71; 32,21</t>
+          <t>-77,57; 27,82</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>3,18; 11,9</t>
+          <t>3,28; 12,16</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>5,87; 14,78</t>
+          <t>5,89; 14,97</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 6,18</t>
+          <t>-3,76; 6,46</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>13,09; 22,39</t>
+          <t>12,4; 21,61</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>10,05; 19,52</t>
+          <t>10,06; 19,45</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 8,94</t>
+          <t>0,89; 9,59</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>9,48; 15,94</t>
+          <t>9,18; 15,7</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>9,27; 15,82</t>
+          <t>9,41; 16,04</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 6,7</t>
+          <t>-0,36; 6,65</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>14,46; 66,47</t>
+          <t>14,15; 68,91</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>26,88; 84,48</t>
+          <t>26,35; 85,54</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-17,47; 33,73</t>
+          <t>-16,94; 35,92</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>44,91; 93,87</t>
+          <t>43,13; 89,33</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>34,61; 81,06</t>
+          <t>34,01; 79,02</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 37,75</t>
+          <t>3,25; 40,83</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>38,1; 73,21</t>
+          <t>37,06; 73,27</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>37,58; 72,95</t>
+          <t>37,5; 74,2</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 30,95</t>
+          <t>-1,52; 30,51</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>6,8; 11,1</t>
+          <t>7,0; 11,14</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>1,83; 5,86</t>
+          <t>1,54; 5,66</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-8,61; -4,61</t>
+          <t>-8,57; -4,68</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>10,17; 14,82</t>
+          <t>10,38; 15,0</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>0,42; 5,13</t>
+          <t>0,63; 5,31</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-13,28; -0,49</t>
+          <t>-13,07; -0,49</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>9,41; 12,54</t>
+          <t>9,31; 12,43</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>1,81; 4,9</t>
+          <t>1,78; 4,79</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-10,15; -3,5</t>
+          <t>-10,09; -3,6</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>32,74; 57,96</t>
+          <t>32,97; 57,78</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>8,48; 30,83</t>
+          <t>7,12; 29,26</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-41,29; -24,32</t>
+          <t>-40,87; -24,94</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>32,19; 50,37</t>
+          <t>32,74; 51,59</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>1,35; 17,55</t>
+          <t>1,73; 18,05</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-42,93; -1,18</t>
+          <t>-42,37; -0,24</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>36,0; 51,17</t>
+          <t>35,77; 50,75</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>6,75; 19,83</t>
+          <t>6,84; 19,53</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-39,33; -12,87</t>
+          <t>-39,11; -13,32</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2C_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P2C_R-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales)</t>
+          <t>Hogares con al menos un miembro que requiere cuidados habituales por la persona entrevistada</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -637,12 +637,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-20,41</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-5,63</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-31,89</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-3,08</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-25,96</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 6,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-26,43; -14,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-13,76; 3,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-38,26; -25,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-8,93; 2,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-30,74; -21,68</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -743,12 +743,12 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-76,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -758,12 +758,12 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-13,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-78,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -773,12 +773,12 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-9,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-77,4%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-28,31; 29,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-86,02; -62,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-30,33; 9,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-84,5; -70,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-24,73; 9,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-83,08; -70,84</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,18</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,74</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,44</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13,16</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,11</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-7,65</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>12,23</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,46</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-5,47</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,32; 16,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 9,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,88; 0,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,12; 19,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 7,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,86; -2,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,1; 16,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 7,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-9,04; -2,18</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>76,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>32,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-23,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>47,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-27,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>57,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>16,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-25,86%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>36,84; 136,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 75,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-47,58; 6,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>23,37; 79,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-12,24; 31,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-41,68; -10,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>35,81; 86,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 38,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-39,14; -11,18</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7,06</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,53</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-10,52</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,63</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-5,38</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-17,6</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>8,38</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-3,98</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-14,11</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,53; 14,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,13; 3,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-16,55; -4,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,39; 16,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-12,53; 1,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-23,54; -12,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,06; 13,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,8; 0,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-18,2; -9,6</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>31,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-11,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-46,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>30,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-17,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-56,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>30,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-14,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-51,97%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,93; 75,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-34,76; 18,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-63,04; -23,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,24; 60,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-36,31; 4,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-66,63; -44,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>10,28; 57,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-30,02; 2,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-61,28; -39,26</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,84</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-8,16</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-8,65</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>15,67</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-16,12</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>10,74</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-4,21</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-12,46</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 11,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-14,43; -2,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-14,81; -0,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,61; 21,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,4; 6,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-22,55; -10,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,41; 14,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-8,62; 0,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-16,76; -8,05</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>23,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-33,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-35,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>49,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-1,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-50,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>37,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-14,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-43,97%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 53,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-50,48; -10,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-55,52; -3,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>26,5; 76,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-21,19; 21,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-62,7; -37,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>20,83; 56,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-28,51; 2,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-56,28; -30,81</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>10,67</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>21,11</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-4,91</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>16,57</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>13,78</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-15,51</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>13,7</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>17,42</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-10,29</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,49; 18,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>12,57; 29,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-11,35; 1,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>7,69; 26,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>4,46; 22,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-22,45; -8,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>7,97; 20,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>11,08; 23,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-15,23; -5,51</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>67,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>134,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-31,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>63,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>53,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-59,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>65,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>83,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-49,23%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>13,49; 156,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>59,62; 235,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-57,45; 11,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>24,49; 122,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>15,66; 109,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-73,7; -40,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>31,87; 114,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>46,04; 132,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-63,16; -30,11</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>6,91</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-5,41</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>14,82</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-1,59</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>10,9</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-3,52</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 14,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 8,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-11,91; 1,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>6,81; 22,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 8,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-8,63; 5,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>5,37; 16,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 5,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-8,22; 1,06</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>29,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-23,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>58,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-6,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>44,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-14,46%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 78,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-22,18; 42,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-43,66; 6,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>22,12; 100,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-24,98; 39,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-28,93; 24,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>19,59; 73,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-17,49; 26,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-29,69; 5,09</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>14,79</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>2,11</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-13,04</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>5,92</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-4,22</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-15,03</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>10,29</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-13,28</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>10,01; 19,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 6,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-16,97; -9,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,56; 11,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-9,56; 0,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-29,22; 15,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>6,27; 14,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 2,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-21,33; 7,38</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>80,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>11,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-70,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>16,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-11,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-42,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>38,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-3,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-49,22%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>47,38; 124,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-11,99; 41,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-81,01; -55,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>1,7; 35,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-25,16; 1,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-80,7; 42,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>21,57; 55,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-16,0; 8,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-77,57; 27,82</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>7,51</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>10,2</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>17,28</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>14,62</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>5,05</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>12,54</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>12,48</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>3,38</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>3,28; 12,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>5,89; 14,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 6,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>12,4; 21,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>10,06; 19,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>0,89; 9,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>9,18; 15,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>9,41; 16,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 6,65</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>38,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>51,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>9,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>65,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>55,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>19,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>53,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>53,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>14,55%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>14,15; 68,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>26,35; 85,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-16,94; 35,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>43,13; 89,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>34,01; 79,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>3,25; 40,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>37,06; 73,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>37,5; 74,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 30,51</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>9,07</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>-6,72</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>12,56</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>2,89</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>-9,95</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>10,86</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>3,29</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>-8,2</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>7,0; 11,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>1,54; 5,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-8,57; -4,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>10,38; 15,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>0,63; 5,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-13,07; -0,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>9,31; 12,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>1,78; 4,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-10,09; -3,6</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>44,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>18,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>-33,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>41,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>9,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>-32,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>42,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>12,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>-32,36%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>32,97; 57,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>7,12; 29,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-40,87; -24,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>32,74; 51,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>1,73; 18,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-42,37; -0,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>35,77; 50,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>6,84; 19,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-39,11; -13,32</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2C_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P2C_R-Provincia-trans_camb.xlsx
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-2,84</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,12</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-49,68</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,22</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-61,03</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,86</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-55,76</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,67; 8,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,35; 3,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,13; -41,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,13; 12,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,07; -3,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,07; -52,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,95; 7,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,2; -3,12</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,37; -49,47</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,32%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,23%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-93,13%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,11%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-92,69%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,44%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,77%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-92,97%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,58; 18,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,2; 6,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-96,23; -87,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,69; 19,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,29; -5,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-95,21; -89,46</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,36; 12,8</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,49; -5,61</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-95,04; -90,29</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,74</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,33</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-22,84</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,79</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,84</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-27,93</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,68</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,93</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-26,03</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,63; 21,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,78; 17,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,27; -17,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,56; 26,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,26; 15,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,83; -21,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,76; 21,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,59; 14,79</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,42; -22,36</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,44%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,42%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-80,51%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,06%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,43%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-69,26%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,68%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,53%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-74,41%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,35; 86,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,15; 71,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,45; -70,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,3; 73,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,27; 41,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,98; -59,58</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,86; 66,67</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,89; 45,75</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,44; -68,56</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,14</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-34,25</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,91</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,33</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-41,37</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,44</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,31</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-38,14</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,16; 22,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,4; 9,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,81; -26,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,14; 19,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,56; 3,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,22; -34,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,82; 18,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,1; 3,48</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,28; -32,86</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,6%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,29%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-86,33%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,59%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,04%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-85,67%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,79%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,46%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-86,0%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,8; 64,17</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,96; 26,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,61; -78,81</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,12; 45,77</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,1; 7,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,23; -79,63</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,87; 46,15</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,11; 8,73</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,44; -81,16</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,29</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-37,79</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,05</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-39,09</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,92</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,48</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-38,43</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,61; 11,99</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,29; -2,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,69; -29,28</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,58; 20,99</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,58; 7,65</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,61; -32,32</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,65; 14,63</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,41; 1,55</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,11; -33,64</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,51%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-81,5%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,59%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,98%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-79,64%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,54%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,46%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-80,29%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,53; 28,6</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,41; -6,46</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,18; -69,05</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,92; 48,54</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,21; 17,52</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,17; -71,93</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,23; 33,4</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,15; 3,48</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,26; -74,63</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,12</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>29,33</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-21,4</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,13</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>24,94</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-31,27</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,24</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>26,65</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-27,16</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,51; 21,99</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,7; 41,82</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,61; -10,81</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,25; 31,31</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,82; 36,62</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,89; -23,43</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,42; 23,34</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,68; 34,67</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,55; -21,14</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,89%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>99,31%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-72,45%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,62%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>69,18%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-86,75%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,74%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>80,0%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-81,54%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,21; 96,76</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>47,54; 187,0</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,82; -48,63</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,09; 106,7</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,72; 121,06</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-93,67; -78,96</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,57; 80,89</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>49,54; 120,92</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,86; -72,77</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,0</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,03</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-31,8</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,36</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-28,28</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,53</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-29,99</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,45; 17,29</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,82; 8,0</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,2; -23,23</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,27; 27,84</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,44; 11,96</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,37; -20,71</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,99; 19,48</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,59; 6,43</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,24; -25,02</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,29%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,05%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-73,99%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,89%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-69,9%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,08%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,04%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-71,99%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,92; 44,9</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,81; 21,3</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,96; -62,26</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,07; 81,89</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,93; 33,91</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,61; -59,15</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,89; 51,79</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,93; 17,31</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,71; -65,09</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>26,28</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,27</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-31,81</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,47</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,12</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-24,51</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,51</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-27,28</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,82; 33,12</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,6; 16,01</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,45; -26,84</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,22; 18,71</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,45; 4,93</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,31; 12,25</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,76; 23,34</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,88; 7,52</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,85; 4,58</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>75,41%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,87%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-91,27%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,07%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,1%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-47,28%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,77%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-61,56%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>49,37; 109,26</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,63; 49,91</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-94,66; -85,79</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,16; 38,98</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,74; 10,25</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,74; 27,05</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,4; 56,38</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,27; 17,95</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,47; 12,24</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,43</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,92</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-20,26</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,45</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,9</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,32</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,45</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,54</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,46</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,49; 20,95</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,99; 25,26</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,15; -14,12</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,2; 25,72</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,59; 24,03</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,04; -8,92</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,98; 22,05</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,94; 22,66</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,34; -13,65</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,52%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,06%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-61,09%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,8%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,59%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,87%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,67%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,59%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-49,37%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,19; 70,83</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>36,12; 85,74</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,72; -43,93</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>32,4; 67,9</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,73; 62,59</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,51; -23,69</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>32,59; 63,2</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>35,32; 64,65</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,16; -37,92</t>
         </is>
       </c>
     </row>
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,41</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,24</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-29,23</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,58</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,26</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-29,38</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,08</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,19</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-29,57</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,5; 15,6</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,16; 10,17</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,95; -26,82</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,7; 18,32</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,49; 8,27</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,04; -15,4</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,99; 16,21</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,15; 8,5</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,73; -20,99</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,59%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,59%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-79,08%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,87%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,43%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-63,86%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,59%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,78%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-70,56%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,1; 44,59</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,56; 28,91</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,43; -75,52</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,82; 41,64</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,18; 18,58</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,25; -33,39</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,87; 39,88</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,74; 20,92</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,58; -50,38</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2C_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P2C_R-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,67; 8,94</t>
+          <t>-13,77; 8,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-19,35; 3,11</t>
+          <t>-19,06; 3,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-58,13; -41,32</t>
+          <t>-58,13; -41,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,13; 12,04</t>
+          <t>-7,84; 10,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-25,07; -3,83</t>
+          <t>-25,9; -5,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-68,07; -52,99</t>
+          <t>-68,38; -52,59</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 7,27</t>
+          <t>-8,17; 7,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-19,2; -3,12</t>
+          <t>-20,04; -3,73</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-61,37; -49,47</t>
+          <t>-61,82; -50,38</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-24,58; 18,86</t>
+          <t>-23,53; 16,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-33,2; 6,63</t>
+          <t>-32,8; 8,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-96,23; -87,77</t>
+          <t>-96,3; -87,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,69; 19,97</t>
+          <t>-11,24; 18,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-35,29; -5,97</t>
+          <t>-37,2; -9,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-95,21; -89,46</t>
+          <t>-95,23; -89,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-12,36; 12,8</t>
+          <t>-12,89; 13,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-30,49; -5,61</t>
+          <t>-31,58; -7,06</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-95,04; -90,29</t>
+          <t>-95,12; -90,34</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,63; 21,33</t>
+          <t>5,54; 22,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,78; 17,5</t>
+          <t>1,53; 18,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-29,27; -17,38</t>
+          <t>-29,26; -16,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,56; 26,75</t>
+          <t>12,53; 26,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,26; 15,36</t>
+          <t>0,77; 15,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-33,83; -21,89</t>
+          <t>-33,8; -22,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,76; 21,51</t>
+          <t>10,21; 21,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,59; 14,79</t>
+          <t>2,78; 14,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-30,42; -22,36</t>
+          <t>-30,24; -21,89</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,35; 86,24</t>
+          <t>17,06; 92,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,15; 71,5</t>
+          <t>3,83; 74,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-87,45; -70,95</t>
+          <t>-87,89; -69,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>28,3; 73,71</t>
+          <t>28,11; 73,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,27; 41,04</t>
+          <t>1,76; 43,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-75,98; -59,58</t>
+          <t>-76,24; -60,59</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,86; 66,67</t>
+          <t>26,62; 66,34</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,89; 45,75</t>
+          <t>7,39; 45,64</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-79,44; -68,56</t>
+          <t>-79,65; -68,5</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,16; 22,42</t>
+          <t>1,96; 22,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,4; 9,24</t>
+          <t>-11,37; 9,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-41,81; -26,95</t>
+          <t>-41,49; -26,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,14; 19,69</t>
+          <t>2,38; 21,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-14,56; 3,53</t>
+          <t>-13,95; 4,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-48,22; -34,4</t>
+          <t>-48,21; -34,42</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,82; 18,71</t>
+          <t>4,43; 17,99</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-10,1; 3,48</t>
+          <t>-9,76; 3,73</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-43,28; -32,86</t>
+          <t>-43,45; -33,36</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,8; 64,17</t>
+          <t>4,37; 66,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-24,96; 26,21</t>
+          <t>-24,51; 27,37</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-91,61; -78,81</t>
+          <t>-91,45; -78,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,12; 45,77</t>
+          <t>4,64; 50,78</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-28,1; 7,88</t>
+          <t>-26,73; 10,29</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-90,23; -79,63</t>
+          <t>-89,95; -79,38</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,87; 46,15</t>
+          <t>9,32; 44,03</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-21,11; 8,73</t>
+          <t>-20,41; 9,16</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-89,44; -81,16</t>
+          <t>-89,31; -81,46</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,61; 11,99</t>
+          <t>-7,32; 11,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-22,29; -2,24</t>
+          <t>-21,65; -1,44</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-45,69; -29,28</t>
+          <t>-46,08; -29,27</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,58; 20,99</t>
+          <t>4,21; 21,09</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-9,58; 7,65</t>
+          <t>-9,3; 8,76</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-46,61; -32,32</t>
+          <t>-47,04; -32,1</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,65; 14,63</t>
+          <t>2,01; 14,26</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-12,41; 1,55</t>
+          <t>-11,17; 0,92</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-44,11; -33,64</t>
+          <t>-43,9; -33,21</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-15,53; 28,6</t>
+          <t>-14,05; 29,74</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-44,41; -6,46</t>
+          <t>-42,59; -3,49</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-89,18; -69,05</t>
+          <t>-88,8; -70,34</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>8,92; 48,54</t>
+          <t>7,63; 46,85</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-18,21; 17,52</t>
+          <t>-17,61; 19,24</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-88,17; -71,93</t>
+          <t>-87,94; -71,43</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,23; 33,4</t>
+          <t>3,97; 32,08</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-24,15; 3,48</t>
+          <t>-22,6; 1,86</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-86,26; -74,63</t>
+          <t>-86,07; -74,14</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 21,99</t>
+          <t>-3,34; 21,21</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>17,7; 41,82</t>
+          <t>16,93; 39,54</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-30,61; -10,81</t>
+          <t>-31,51; -11,95</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>10,25; 31,31</t>
+          <t>9,8; 31,94</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>13,82; 36,62</t>
+          <t>12,68; 35,87</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-39,89; -23,43</t>
+          <t>-40,35; -23,8</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>7,42; 23,34</t>
+          <t>7,78; 23,83</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>18,68; 34,67</t>
+          <t>19,22; 34,63</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-33,55; -21,14</t>
+          <t>-34,04; -20,87</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-10,21; 96,76</t>
+          <t>-10,35; 88,48</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>47,54; 187,0</t>
+          <t>45,48; 169,18</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-83,82; -48,63</t>
+          <t>-84,01; -51,03</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>25,09; 106,7</t>
+          <t>24,58; 111,89</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>31,72; 121,06</t>
+          <t>29,66; 124,33</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-93,67; -78,96</t>
+          <t>-93,13; -78,31</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>19,57; 80,89</t>
+          <t>20,56; 84,6</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>49,54; 120,92</t>
+          <t>50,97; 124,6</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-88,86; -72,77</t>
+          <t>-88,99; -73,87</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 17,29</t>
+          <t>-3,91; 18,25</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-13,82; 8,0</t>
+          <t>-13,29; 7,46</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-40,2; -23,23</t>
+          <t>-40,12; -22,97</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>7,27; 27,84</t>
+          <t>6,62; 27,41</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-9,44; 11,96</t>
+          <t>-9,2; 11,72</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-36,37; -20,71</t>
+          <t>-36,54; -20,3</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>4,99; 19,48</t>
+          <t>5,2; 20,02</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 6,43</t>
+          <t>-8,31; 6,77</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-36,24; -25,02</t>
+          <t>-36,31; -24,21</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 44,9</t>
+          <t>-8,06; 49,0</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-28,81; 21,3</t>
+          <t>-28,17; 20,37</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-81,96; -62,26</t>
+          <t>-82,78; -64,04</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>16,07; 81,89</t>
+          <t>14,75; 79,25</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-20,93; 33,91</t>
+          <t>-20,88; 32,99</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-78,61; -59,15</t>
+          <t>-78,7; -57,34</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>10,89; 51,79</t>
+          <t>11,33; 52,75</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-18,93; 17,31</t>
+          <t>-18,4; 17,67</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-78,71; -65,09</t>
+          <t>-78,49; -64,32</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>18,82; 33,12</t>
+          <t>18,86; 32,76</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 16,01</t>
+          <t>0,57; 15,2</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-37,45; -26,84</t>
+          <t>-36,77; -26,22</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>6,22; 18,71</t>
+          <t>5,55; 19,12</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-8,45; 4,93</t>
+          <t>-8,9; 5,0</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-49,31; 12,25</t>
+          <t>-49,02; 8,32</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>13,76; 23,34</t>
+          <t>13,53; 23,43</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 7,52</t>
+          <t>-2,84; 7,52</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-41,85; 4,58</t>
+          <t>-41,55; 5,31</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>49,37; 109,26</t>
+          <t>49,58; 106,4</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 49,91</t>
+          <t>1,39; 49,23</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-94,66; -85,79</t>
+          <t>-94,77; -84,96</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>11,16; 38,98</t>
+          <t>9,67; 39,23</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-15,74; 10,25</t>
+          <t>-16,33; 10,14</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-92,74; 27,05</t>
+          <t>-92,68; 16,93</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>29,4; 56,38</t>
+          <t>29,23; 57,88</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 17,95</t>
+          <t>-6,02; 17,95</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-92,47; 12,24</t>
+          <t>-92,54; 11,87</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>7,49; 20,95</t>
+          <t>7,08; 19,73</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>12,99; 25,26</t>
+          <t>12,86; 26,28</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-30,15; -14,12</t>
+          <t>-30,24; -13,8</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>14,2; 25,72</t>
+          <t>14,9; 26,51</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>11,59; 24,03</t>
+          <t>12,2; 24,17</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-19,04; -8,92</t>
+          <t>-19,2; -9,13</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>12,98; 22,05</t>
+          <t>13,38; 21,79</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>13,94; 22,66</t>
+          <t>14,16; 22,65</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-27,34; -13,65</t>
+          <t>-25,95; -13,84</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>21,19; 70,83</t>
+          <t>19,37; 66,28</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>36,12; 85,74</t>
+          <t>34,95; 87,6</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-83,72; -43,93</t>
+          <t>-83,49; -43,73</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>32,4; 67,9</t>
+          <t>33,38; 70,27</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>25,73; 62,59</t>
+          <t>27,57; 64,29</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-43,51; -23,69</t>
+          <t>-43,44; -24,31</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>32,59; 63,2</t>
+          <t>34,36; 62,95</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>35,32; 64,65</t>
+          <t>36,0; 65,03</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-69,16; -37,92</t>
+          <t>-69,11; -38,42</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>9,5; 15,6</t>
+          <t>9,57; 15,35</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>4,16; 10,17</t>
+          <t>4,02; 10,25</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-31,95; -26,82</t>
+          <t>-32,18; -26,61</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>12,7; 18,32</t>
+          <t>12,93; 18,71</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>2,49; 8,27</t>
+          <t>2,14; 8,1</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-35,04; -15,4</t>
+          <t>-35,15; -13,5</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>11,99; 16,21</t>
+          <t>11,69; 16,22</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>4,15; 8,5</t>
+          <t>4,21; 8,7</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-32,73; -20,99</t>
+          <t>-32,69; -19,94</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>25,1; 44,59</t>
+          <t>24,91; 43,07</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>10,56; 28,91</t>
+          <t>10,66; 29,1</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-83,43; -75,52</t>
+          <t>-83,52; -75,76</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>26,82; 41,64</t>
+          <t>27,3; 42,07</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>5,18; 18,58</t>
+          <t>4,33; 17,99</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-75,25; -33,39</t>
+          <t>-75,41; -29,28</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>27,87; 39,88</t>
+          <t>27,07; 40,0</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>9,74; 20,92</t>
+          <t>9,75; 21,24</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-77,58; -50,38</t>
+          <t>-77,62; -48,08</t>
         </is>
       </c>
     </row>
